--- a/relatorioChamada.xlsx
+++ b/relatorioChamada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\jeffux\Documents\Vinhedo\Bela Vista\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Lista 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF983C92-F94B-4882-9334-C753B215EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22AEF58-378C-407F-A967-A4C4920E5CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E062E1E0-D6DA-4B03-B8FF-70AA7DD5E231}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$N$6</definedName>
     <definedName name="Hora">OFFSET(#REF!,SUM((#REF!=Planilha1!$B$3)*(#REF!=Planilha1!$B$4)*ROW(#REF!))-2,0,SUM((#REF!=Planilha1!$B$3)*(#REF!=Planilha1!$B$4)),1)</definedName>
     <definedName name="Prof">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
     <definedName name="Turma">OFFSET(#REF!,MATCH(Planilha1!$B$3,#REF!,0)-1,0,COUNTIF(#REF!,Planilha1!$B$3),1)</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>parQ</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>mês:</t>
-  </si>
-  <si>
-    <t>Nível</t>
   </si>
   <si>
     <t>PREFEITURA MUNICIPAL DE VINHEDO</t>
@@ -82,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +98,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -147,12 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4F9505-5707-422A-88FD-F3D678E847CD}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,62 +478,61 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="12" width="3.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="5" max="14" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -556,9 +542,8 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
